--- a/Assets/ExcelDB/UnitOriginDB.xlsx
+++ b/Assets/ExcelDB/UnitOriginDB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\Invasion\Assets\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE75BC8-97DD-4256-B88E-6228310B08A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D02CE87-FC73-4EDB-B514-A2E7B5EA366C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21810" yWindow="1935" windowWidth="16875" windowHeight="11505" activeTab="1" xr2:uid="{CC89F0D5-F35C-4025-AFA9-E690893B3200}"/>
+    <workbookView xWindow="36945" yWindow="360" windowWidth="19110" windowHeight="14925" xr2:uid="{CC89F0D5-F35C-4025-AFA9-E690893B3200}"/>
   </bookViews>
   <sheets>
-    <sheet name="HumalDBList" sheetId="7" r:id="rId1"/>
-    <sheet name="EnemyDBList" sheetId="8" r:id="rId2"/>
+    <sheet name="humalDBList" sheetId="7" r:id="rId1"/>
+    <sheet name="enemyDBList" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>샘닭이</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,61 @@
   </si>
   <si>
     <t>Woman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아랑</t>
+  </si>
+  <si>
+    <t>Arang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리요</t>
+  </si>
+  <si>
+    <t>Riyo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이미넴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amynem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고덕칠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoDuckChill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩지</t>
+  </si>
+  <si>
+    <t>KongJi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파치</t>
+  </si>
+  <si>
+    <t>PatJi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마야</t>
+  </si>
+  <si>
+    <t>Maya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,21 +268,101 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -236,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +380,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,23 +713,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891E65EE-B6FE-407D-A206-504B786FCF75}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="5" width="7.875" customWidth="1"/>
-    <col min="8" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
-    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="4" max="6" width="7.875" customWidth="1"/>
+    <col min="9" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -590,34 +743,37 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -631,34 +787,37 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>300</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>15</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -672,34 +831,37 @@
         <v>1</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>210</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>110</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>20</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>10</v>
       </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -713,34 +875,37 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>125</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>65</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>8</v>
       </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -754,34 +919,37 @@
         <v>1</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>300</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>95</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>15</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>10</v>
       </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -795,34 +963,37 @@
         <v>1</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>250</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>120</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>17</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>9</v>
       </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -836,34 +1007,37 @@
         <v>1</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>500</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>50</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>15</v>
       </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -877,34 +1051,37 @@
         <v>1</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>300</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>130</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>12</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>20</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>13</v>
       </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -918,34 +1095,37 @@
         <v>1</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>220</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>80</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>15</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>25</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>15</v>
       </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -959,34 +1139,37 @@
         <v>1</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>200</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>75</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>15</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1000,34 +1183,37 @@
         <v>1</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>750</v>
       </c>
-      <c r="G11">
-        <v>120</v>
-      </c>
       <c r="H11">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K11">
+        <v>35</v>
+      </c>
+      <c r="L11">
         <v>25</v>
       </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1041,30 +1227,341 @@
         <v>1</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>400</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>200</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>20</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>30</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>20</v>
       </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12">
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>600</v>
+      </c>
+      <c r="H13">
+        <v>120</v>
+      </c>
+      <c r="I13">
+        <v>26</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>350</v>
+      </c>
+      <c r="H14">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>35</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
+      </c>
+      <c r="H15">
+        <v>130</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>15</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>250</v>
+      </c>
+      <c r="H16">
+        <v>120</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>220</v>
+      </c>
+      <c r="H17">
+        <v>130</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>13</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+      <c r="H18">
+        <v>110</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>15</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>300</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>1</v>
       </c>
     </row>
@@ -1077,15 +1574,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC04A1E6-EE16-499D-94B6-229595125697}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1099,34 +1596,37 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1140,34 +1640,37 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>250</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1181,30 +1684,33 @@
         <v>1</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>250</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
     </row>
